--- a/medicine/Mort/Cimetière_des_Chaprais/Cimetière_des_Chaprais.xlsx
+++ b/medicine/Mort/Cimetière_des_Chaprais/Cimetière_des_Chaprais.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_des_Chaprais</t>
+          <t>Cimetière_des_Chaprais</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le cimetière des Chaprais[1] est un cimetière situé dans le quartier des Chaprais, à Besançon (Bourgogne-Franche-Comté). Ce cimetière, l'un des cinq de la commune[2], est considéré comme l'un des plus importants et les plus beaux de la ville avec le cimetière juif, et est parfois surnommé le « père Lachaise » de Besançon. La partie haute du cimetière est un site classé par un arrêté de 1977[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cimetière des Chaprais est un cimetière situé dans le quartier des Chaprais, à Besançon (Bourgogne-Franche-Comté). Ce cimetière, l'un des cinq de la commune, est considéré comme l'un des plus importants et les plus beaux de la ville avec le cimetière juif, et est parfois surnommé le « père Lachaise » de Besançon. La partie haute du cimetière est un site classé par un arrêté de 1977.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_des_Chaprais</t>
+          <t>Cimetière_des_Chaprais</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,12 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">L'église Saint-Martin
-L'actuelle église Saint-Martin fut reconstruite à partir de 1821 sur les plans de l'architecte Denis-Philippe Lapret, sur le lieu-dit du « Pater », au cœur du quartier des Chaprais. Elle fut rebâtie près du cimetière des Chaprais qui existait déjà auparavant, et fut dès lors nommée église Saint-Martin des Chaprais pour la différencier de l'ancienne église Saint-Martin de Bregille[4].
-Le cimetière
-Le cimetière des Chaprais, dont les plans ont été dessinés par l'architecte municipal Lapret avant son décès, a été ouvert en 1824[5], sur un terrain de 5,12 ha, après avoir bénéficié de quelques changements dessinés par le talentueux Pierre Marnotte (architecte municipal successeur de D.-Ph. Lapret) à la suite de la reconstruction de l'église dont l'existence est bien plus ancienne[4]. C'est à la suite du rejet progressif des habitants contre le cimetière des Champs Bruley ouvert en 1793[6], que le site est créé pour y accueillir les dépouilles catholiques[7]. Il tire son style de l’harmonie entre l’élégance végétale et la gravité monumentale de la pierre, largement inspiré du modèle romantique anglais[5]. Parmi les 8 183 concessions actuelles, on peut apercevoir dans ce cimetière des obélisques, des pyramides, des cippes ou des chapelles typiquement de style architectural du XIXe siècle mêlant romantisme, néoclassique et néogothique[5].
-Le tombeau de Joseph Liard
-Joseph Liard (né le 27 décembre 1747 à Rosières-aux-Salines en Meurthe-et-Moselle et décédé le 21 avril 1832 était ingénieur en chef des Ponts et Chaussées du Doubs de 1791 à 1832 puis directeur du canal du Rhône au Rhin[3]. C'est Liard lui-même qui a dessiné les plans de son tombeau, qui fut apparemment construit dans le 2e quart du XIXe siècle[3]. Le tombeau se compose d'une base simple, d'un obélisque ainsi que d'un socle assez haut dont chaque face latérale est ornée d'une urne d'où s'écoule un cours d'eau avec l'inscription " Rhin " et " Rhône ", le tout édifié en pierre calcaire sculptée en bas-relief[3]. Sur la face antérieure du tombeau, on peut voir une représentation de l'entrée du tunnel-canal de Thoraise (Doubs), surmontée de l'inscription (partielle à la suite de dommages) « Jose[ph Liard] / Inspect[eur génér]al des Ponts [et] Chaussées / Commandeur de la [légion] d'honneur / né le 27 décembre [1747, mort le 21 avril 183]2 », et sur sa face postérieure l'inscription « [Joseph L]iard Direc[te]ur [d]u canal / du Rhône [au Rhin ... p]ar Mr Dupuy / ... »[3]. Un fronton triangulaire terminé dans les angles par des crosses affrontées coiffe toutes ses faces, et la face antérieure de l'obélisque est ornée d'un relief fortement endommagé représentant des motifs végétaux qui grimpent autour d'un bâton (de nature indéterminée : tige ou manche ?)[3].
+          <t>L'église Saint-Martin</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'actuelle église Saint-Martin fut reconstruite à partir de 1821 sur les plans de l'architecte Denis-Philippe Lapret, sur le lieu-dit du « Pater », au cœur du quartier des Chaprais. Elle fut rebâtie près du cimetière des Chaprais qui existait déjà auparavant, et fut dès lors nommée église Saint-Martin des Chaprais pour la différencier de l'ancienne église Saint-Martin de Bregille.
 </t>
         </is>
       </c>
@@ -529,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_des_Chaprais</t>
+          <t>Cimetière_des_Chaprais</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,12 +557,88 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Histoire</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Le cimetière</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cimetière des Chaprais, dont les plans ont été dessinés par l'architecte municipal Lapret avant son décès, a été ouvert en 1824, sur un terrain de 5,12 ha, après avoir bénéficié de quelques changements dessinés par le talentueux Pierre Marnotte (architecte municipal successeur de D.-Ph. Lapret) à la suite de la reconstruction de l'église dont l'existence est bien plus ancienne. C'est à la suite du rejet progressif des habitants contre le cimetière des Champs Bruley ouvert en 1793, que le site est créé pour y accueillir les dépouilles catholiques. Il tire son style de l’harmonie entre l’élégance végétale et la gravité monumentale de la pierre, largement inspiré du modèle romantique anglais. Parmi les 8 183 concessions actuelles, on peut apercevoir dans ce cimetière des obélisques, des pyramides, des cippes ou des chapelles typiquement de style architectural du XIXe siècle mêlant romantisme, néoclassique et néogothique.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Cimetière_des_Chaprais</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cimeti%C3%A8re_des_Chaprais</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Histoire</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Le tombeau de Joseph Liard</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Joseph Liard (né le 27 décembre 1747 à Rosières-aux-Salines en Meurthe-et-Moselle et décédé le 21 avril 1832 était ingénieur en chef des Ponts et Chaussées du Doubs de 1791 à 1832 puis directeur du canal du Rhône au Rhin. C'est Liard lui-même qui a dessiné les plans de son tombeau, qui fut apparemment construit dans le 2e quart du XIXe siècle. Le tombeau se compose d'une base simple, d'un obélisque ainsi que d'un socle assez haut dont chaque face latérale est ornée d'une urne d'où s'écoule un cours d'eau avec l'inscription " Rhin " et " Rhône ", le tout édifié en pierre calcaire sculptée en bas-relief. Sur la face antérieure du tombeau, on peut voir une représentation de l'entrée du tunnel-canal de Thoraise (Doubs), surmontée de l'inscription (partielle à la suite de dommages) « Jose[ph Liard] / Inspect[eur génér]al des Ponts [et] Chaussées / Commandeur de la [légion] d'honneur / né le 27 décembre [1747, mort le 21 avril 183]2 », et sur sa face postérieure l'inscription « [Joseph L]iard Direc[te]ur [d]u canal / du Rhône [au Rhin ... p]ar Mr Dupuy / ... ». Un fronton triangulaire terminé dans les angles par des crosses affrontées coiffe toutes ses faces, et la face antérieure de l'obélisque est ornée d'un relief fortement endommagé représentant des motifs végétaux qui grimpent autour d'un bâton (de nature indéterminée : tige ou manche ?).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Cimetière_des_Chaprais</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cimeti%C3%A8re_des_Chaprais</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Personnalités enterrées</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le cimetière accueille les dépouilles de nombreuses personnalités[5]. Parmi elles, les dix-sept officiers d’Empire dont Jean-François Boulart, certains maires de la ville comme Nicolas Bruand, Jean–Agathe Micaud, Victor Delavelle ou Charles Siffert, le ténor Émile Scaremberg (parfois orthographé 'Scaramberg') ou la mère de Rudolph Valentino (Gabrielle Guglielmi née Barbin), l’architecte Alphonse Delacroix, le fouriériste Just Muiron, l'épouse du général Ducos de  La Hitte ou encore Gaston Coindre auteur de Mon vieux Besançon [5].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cimetière accueille les dépouilles de nombreuses personnalités. Parmi elles, les dix-sept officiers d’Empire dont Jean-François Boulart, certains maires de la ville comme Nicolas Bruand, Jean–Agathe Micaud, Victor Delavelle ou Charles Siffert, le ténor Émile Scaremberg (parfois orthographé 'Scaramberg') ou la mère de Rudolph Valentino (Gabrielle Guglielmi née Barbin), l’architecte Alphonse Delacroix, le fouriériste Just Muiron, l'épouse du général Ducos de  La Hitte ou encore Gaston Coindre auteur de Mon vieux Besançon .
 </t>
         </is>
       </c>
